--- a/config_debug/activity_025_bxfl_config.xlsx
+++ b/config_debug/activity_025_bxfl_config.xlsx
@@ -156,15 +156,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3D捕鱼中任意场次，获得20张龙虾兑换券</t>
-  </si>
-  <si>
-    <t>3D捕鱼中任意场次，获得10张龙虾兑换券</t>
-  </si>
-  <si>
-    <t>3D捕鱼中任意场次，获得30张龙虾兑换券</t>
-  </si>
-  <si>
     <t>bxfl_bg_bxfl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -257,6 +248,18 @@
   </si>
   <si>
     <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中任意场次，获得10张小龙虾券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中任意场次，获得20张小龙虾券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼中任意场次，获得30张小龙虾券</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>24</v>
@@ -785,7 +788,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -863,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -872,12 +875,12 @@
         <v>26</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="L2" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -893,7 +896,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -902,12 +905,12 @@
         <v>26</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="L3" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -923,7 +926,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -932,12 +935,12 @@
         <v>27</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="L4" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N4" s="9"/>
     </row>
@@ -952,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -961,12 +964,12 @@
         <v>26</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="L5" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -980,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -989,10 +992,10 @@
         <v>28</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -1006,7 +1009,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -1015,10 +1018,10 @@
         <v>26</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1032,19 +1035,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_debug/activity_025_bxfl_config.xlsx
+++ b/config_debug/activity_025_bxfl_config.xlsx
@@ -788,7 +788,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>21359</v>
+        <v>1000001</v>
       </c>
       <c r="C2" s="9">
         <v>10</v>
@@ -890,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>21359</v>
+        <v>1000001</v>
       </c>
       <c r="C3" s="9">
         <v>20</v>
@@ -920,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>21359</v>
+        <v>1000001</v>
       </c>
       <c r="C4" s="9">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>21360</v>
+        <v>1000002</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>21360</v>
+        <v>1000002</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1002,8 +1002,8 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>21360</v>
+      <c r="B7" s="10">
+        <v>1000002</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1028,8 +1028,8 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>21361</v>
+      <c r="B8" s="10">
+        <v>1000003</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>

--- a/config_debug/activity_025_bxfl_config.xlsx
+++ b/config_debug/activity_025_bxfl_config.xlsx
@@ -243,10 +243,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"game_Eliminate",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -260,6 +256,10 @@
   </si>
   <si>
     <t>3D捕鱼中任意场次，获得30张小龙虾券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -866,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -880,7 +880,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="L2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -896,7 +896,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -910,7 +910,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="L3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -926,7 +926,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -940,7 +940,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="L4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4" s="9"/>
     </row>
@@ -969,7 +969,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="L5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -995,7 +995,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -1021,7 +1021,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>38</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
